--- a/doc/詳細設計/テーブル定義書.xlsx
+++ b/doc/詳細設計/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Blogs\doc\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D07409-0CE7-4008-9A64-915D294EDFA2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BEC4D5-AB73-4366-B65E-4281B4BDA3B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ログテーブル!$A$1:$G$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">管理人テーブル!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">管理人テーブル!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1034,7 +1034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{41E5A7F9-BB2A-4608-B95E-6550B483D3D6}">
+    <comment ref="B24" authorId="0" shapeId="0" xr:uid="{41E5A7F9-BB2A-4608-B95E-6550B483D3D6}">
       <text>
         <r>
           <rPr>
@@ -1071,7 +1071,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{800C0167-0153-4957-8DBC-EE6D0520D176}">
+    <comment ref="C24" authorId="0" shapeId="0" xr:uid="{800C0167-0153-4957-8DBC-EE6D0520D176}">
       <text>
         <r>
           <rPr>
@@ -1109,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{46FBCDFC-F2D1-4960-9A4E-88EABC9F014B}">
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{46FBCDFC-F2D1-4960-9A4E-88EABC9F014B}">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{B5BF7FF6-B42A-4AE7-818A-C29A264C6171}">
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{B5BF7FF6-B42A-4AE7-818A-C29A264C6171}">
       <text>
         <r>
           <rPr>
@@ -1251,7 +1251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{B3A8BD62-9AE4-467A-A184-A4F15F90873A}">
+    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{B3A8BD62-9AE4-467A-A184-A4F15F90873A}">
       <text>
         <r>
           <rPr>
@@ -1271,7 +1271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="80">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -1556,6 +1556,22 @@
   </si>
   <si>
     <t>管理者は一人のみ。</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t>password</t>
     <phoneticPr fontId="13"/>
   </si>
 </sst>
@@ -2777,24 +2793,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2812,6 +2810,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2837,16 +2844,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2860,6 +2864,9 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2883,6 +2890,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31289,123 +31305,123 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="77"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="81"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="81"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="38"/>
@@ -31620,10 +31636,10 @@
       <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="77"/>
       <c r="E23" s="32" t="s">
         <v>23</v>
       </c>
@@ -31641,10 +31657,10 @@
       <c r="B24" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="35" t="s">
         <v>30</v>
       </c>
@@ -31658,8 +31674,8 @@
         <v>2</v>
       </c>
       <c r="B25" s="45"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="42"/>
@@ -31693,6 +31709,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -31702,12 +31724,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -31722,10 +31738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584F2860-3276-4FE9-B295-B24ECD9F17C0}">
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -31757,123 +31773,123 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="77"/>
+      <c r="D2" s="94"/>
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A3" s="44"/>
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="81"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A4" s="44"/>
       <c r="B4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="D4" s="83"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="79" t="s">
+      <c r="F4" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="81"/>
+      <c r="G4" s="84"/>
     </row>
     <row r="5" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A5" s="44"/>
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="81"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A6" s="44"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="79" t="s">
+      <c r="F6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="81"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A7" s="44"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="90"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
     </row>
     <row r="8" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="44"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="44"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="90"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A10" s="44"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="92"/>
     </row>
     <row r="11" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="38"/>
@@ -31940,219 +31956,253 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>2</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>52</v>
+      <c r="B15" s="20" t="s">
+        <v>76</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>51</v>
+      <c r="C15" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="26"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A16" s="23">
+      <c r="A16" s="19">
         <v>3</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>53</v>
+      <c r="B16" s="20" t="s">
+        <v>77</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>54</v>
+      <c r="C16" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="26"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="23">
         <v>4</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="43" customFormat="1" ht="12">
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="23">
         <v>5</v>
       </c>
       <c r="B18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A19" s="23">
+        <v>6</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="43" customFormat="1" ht="12">
+      <c r="A20" s="23">
+        <v>7</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D20" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E20" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F20" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G20" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A19" s="27">
+    <row r="21" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A21" s="27">
+        <v>8</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A24" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="77"/>
+      <c r="E24" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A20" s="44"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+    </row>
+    <row r="25" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A25" s="34">
+        <v>1</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A22" s="31" t="s">
+      <c r="B25" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A26" s="37">
         <v>2</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A23" s="34">
-        <v>1</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="85"/>
-      <c r="E23" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" s="43" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A24" s="37">
-        <v>2</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7" s="43" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" s="43" customFormat="1" ht="11.1" customHeight="1">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32222,13 +32272,13 @@
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="96"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="97"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -32254,13 +32304,13 @@
       <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="98"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -32286,13 +32336,13 @@
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="99"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="98"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -32318,15 +32368,15 @@
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="98"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -32352,11 +32402,11 @@
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="99"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="98"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -32379,14 +32429,14 @@
     </row>
     <row r="7" spans="1:26" ht="11.25" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="107"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -32409,14 +32459,14 @@
     </row>
     <row r="8" spans="1:26" ht="11.25" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -32439,12 +32489,12 @@
     </row>
     <row r="9" spans="1:26" ht="11.25" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -32467,12 +32517,12 @@
     </row>
     <row r="10" spans="1:26" ht="11.25" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="108"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -33018,10 +33068,10 @@
       <c r="B26" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="103"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="61" t="s">
         <v>23</v>
       </c>
@@ -33058,8 +33108,8 @@
       <c r="B27" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
       <c r="G27" s="65"/>
@@ -33090,8 +33140,8 @@
       <c r="B28" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
       <c r="E28" s="64"/>
       <c r="F28" s="66" t="s">
         <v>12</v>
@@ -33126,8 +33176,8 @@
       <c r="B29" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="68"/>
       <c r="F29" s="69" t="s">
         <v>12</v>
@@ -59533,6 +59583,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C26:D26"/>
@@ -59544,11 +59599,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
